--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,48 +43,45 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>small</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
@@ -94,132 +91,138 @@
     <t>apart</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>thought</t>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>bit</t>
   </si>
   <si>
     <t>though</t>
   </si>
   <si>
-    <t>nothing</t>
+    <t>used</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>hard</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>could</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>box</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>5</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>two</t>
+    <t>made</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>made</t>
+    <t>much</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>got</t>
+    <t>bought</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -250,40 +253,40 @@
     <t>loves</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>learn</t>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
-    <t>play</t>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -652,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -734,16 +737,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -763,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -781,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4">
-        <v>0.8153846153846154</v>
+        <v>0.8307692307692308</v>
       </c>
       <c r="L4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -805,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -813,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7887323943661971</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -831,19 +834,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>0.7204301075268817</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -884,7 +887,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6">
         <v>0.660377358490566</v>
@@ -913,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.777027027027027</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="C7">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D7">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,19 +934,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K7">
-        <v>0.578125</v>
+        <v>0.625</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -963,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7634408602150538</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D8">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -981,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1005,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1013,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7631578947368421</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K9">
-        <v>0.4344262295081967</v>
+        <v>0.4565573770491803</v>
       </c>
       <c r="L9">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="M9">
-        <v>530</v>
+        <v>557</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1055,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>690</v>
+        <v>663</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1063,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7572815533980582</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C10">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1081,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10">
-        <v>0.4051724137931034</v>
+        <v>0.4347202295552367</v>
       </c>
       <c r="L10">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="M10">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1134,16 +1137,16 @@
         <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K11">
-        <v>0.4024896265560166</v>
+        <v>0.3962655601659751</v>
       </c>
       <c r="L11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1163,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6458333333333334</v>
+        <v>0.6722689075630253</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1181,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12">
-        <v>0.3180428134556575</v>
+        <v>0.3313253012048193</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1205,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>223</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1213,13 +1216,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6050420168067226</v>
+        <v>0.6144578313253012</v>
       </c>
       <c r="C13">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1231,19 +1234,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K13">
-        <v>0.3121693121693122</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1255,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>130</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1263,13 +1266,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5903614457831325</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1281,31 +1284,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14">
-        <v>0.3083333333333333</v>
+        <v>0.2883435582822086</v>
       </c>
       <c r="L14">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>83</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5740740740740741</v>
+        <v>0.5710144927536231</v>
       </c>
       <c r="C15">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1331,31 +1334,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K15">
-        <v>0.2771084337349398</v>
+        <v>0.2712765957446808</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1363,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5740740740740741</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1381,31 +1384,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16">
-        <v>0.25</v>
+        <v>0.1814516129032258</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>96</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1413,13 +1416,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5449275362318841</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C17">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1431,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17">
-        <v>0.1710758377425044</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="L17">
-        <v>194</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>201</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>0.97</v>
@@ -1455,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>940</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1463,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5433070866141733</v>
+        <v>0.515625</v>
       </c>
       <c r="C18">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D18">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1481,31 +1484,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K18">
-        <v>0.1686746987951807</v>
+        <v>0.1640350877192983</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>188</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>207</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1513,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.46875</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1531,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K19">
-        <v>0.1612903225806452</v>
+        <v>0.116991643454039</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1555,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>156</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1563,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4631578947368421</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="C20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1581,31 +1584,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20">
-        <v>0.0947075208913649</v>
+        <v>0.1011089367253751</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>325</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1613,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4609375</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="C21">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1631,31 +1634,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K21">
-        <v>0.09031838856400259</v>
+        <v>0.09627329192546584</v>
       </c>
       <c r="L21">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1400</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1663,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4606741573033708</v>
+        <v>0.4455445544554456</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1681,31 +1684,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22">
-        <v>0.08064516129032258</v>
+        <v>0.07774798927613941</v>
       </c>
       <c r="L22">
+        <v>29</v>
+      </c>
+      <c r="M22">
         <v>30</v>
       </c>
-      <c r="M22">
-        <v>32</v>
-      </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1713,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4603174603174603</v>
+        <v>0.4407582938388626</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1731,31 +1734,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>0.04973118279569892</v>
+        <v>0.0463768115942029</v>
       </c>
       <c r="L23">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N23">
-        <v>0.82</v>
+        <v>0.68</v>
       </c>
       <c r="O23">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>707</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1763,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4549763033175355</v>
+        <v>0.4296875</v>
       </c>
       <c r="C24">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1781,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4504950495049505</v>
+        <v>0.3186813186813187</v>
       </c>
       <c r="C25">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>111</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1815,25 +1818,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1841,13 +1844,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3406593406593407</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1859,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1867,13 +1870,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3196202531645569</v>
+        <v>0.3006329113924051</v>
       </c>
       <c r="C28">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D28">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1885,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1893,13 +1896,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3163265306122449</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C29">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1911,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1919,13 +1922,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3041237113402062</v>
+        <v>0.2905982905982906</v>
       </c>
       <c r="C30">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1937,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>135</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1945,13 +1948,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2990654205607476</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C31">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1963,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1971,25 +1974,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2777777777777778</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>78</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1997,13 +2000,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.275</v>
+        <v>0.285</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2023,13 +2026,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2742857142857143</v>
+        <v>0.2835051546391752</v>
       </c>
       <c r="C34">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2041,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2049,25 +2052,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2721518987341772</v>
+        <v>0.2710280373831775</v>
       </c>
       <c r="C35">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>230</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2075,25 +2078,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2717391304347826</v>
+        <v>0.2697466467958271</v>
       </c>
       <c r="C36">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="D36">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>201</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2101,25 +2104,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2589928057553957</v>
+        <v>0.2681159420289855</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>103</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2127,25 +2130,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2540861812778603</v>
+        <v>0.2627118644067797</v>
       </c>
       <c r="C38">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>502</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2153,25 +2156,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2450331125827815</v>
+        <v>0.2611464968152866</v>
       </c>
       <c r="C39">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="D39">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="E39">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>342</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2179,25 +2182,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2420749279538905</v>
+        <v>0.2523364485981308</v>
       </c>
       <c r="C40">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>263</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2205,13 +2208,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2356687898089172</v>
+        <v>0.2378854625550661</v>
       </c>
       <c r="C41">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D41">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2223,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>120</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2231,13 +2234,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2349726775956284</v>
+        <v>0.234375</v>
       </c>
       <c r="C42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D42">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2249,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2257,25 +2260,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.225</v>
+        <v>0.2230769230769231</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>124</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2283,25 +2286,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2248062015503876</v>
+        <v>0.2155172413793103</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D44">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2309,25 +2312,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.201058201058201</v>
+        <v>0.2145748987854251</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E45">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>151</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2335,25 +2338,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1954887218045113</v>
+        <v>0.1989528795811518</v>
       </c>
       <c r="C46">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D46">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>214</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2361,25 +2364,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1933701657458564</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="C47">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="D47">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>292</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2387,25 +2390,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1927083333333333</v>
+        <v>0.1720430107526882</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2413,25 +2416,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1680327868852459</v>
+        <v>0.1641221374045801</v>
       </c>
       <c r="C49">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E49">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>203</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2439,13 +2442,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1530612244897959</v>
+        <v>0.1464788732394366</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D50">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2457,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>166</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2465,13 +2468,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1434977578475336</v>
+        <v>0.1460055096418733</v>
       </c>
       <c r="C51">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E51">
         <v>0.04</v>
@@ -2483,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>382</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2491,25 +2494,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1420454545454546</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E52">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F52">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>302</v>
+        <v>270</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2517,25 +2520,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1397849462365591</v>
+        <v>0.1376811594202899</v>
       </c>
       <c r="C53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E53">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2543,13 +2546,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.126984126984127</v>
+        <v>0.1255605381165919</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D54">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E54">
         <v>0.05</v>
@@ -2561,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>275</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2569,25 +2572,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1225165562913907</v>
+        <v>0.1235431235431235</v>
       </c>
       <c r="C55">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>530</v>
+        <v>376</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2595,25 +2598,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1061320754716981</v>
+        <v>0.1204620462046205</v>
       </c>
       <c r="C56">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E56">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="F56">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>379</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2621,25 +2624,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1009389671361502</v>
+        <v>0.09510086455331412</v>
       </c>
       <c r="C57">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E57">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F57">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>383</v>
+        <v>314</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2647,25 +2650,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09582689335394126</v>
+        <v>0.08936825885978428</v>
       </c>
       <c r="C58">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D58">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E58">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F58">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2673,25 +2676,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09428571428571429</v>
+        <v>0.08899297423887588</v>
       </c>
       <c r="C59">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D59">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F59">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2699,25 +2702,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09114249037227215</v>
+        <v>0.0781563126252505</v>
       </c>
       <c r="C60">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D60">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="E60">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F60">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>708</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2725,25 +2728,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07784431137724551</v>
+        <v>0.07800511508951406</v>
       </c>
       <c r="C61">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E61">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="F61">
-        <v>0.9299999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>462</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2751,25 +2754,51 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0659090909090909</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="C62">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D62">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E62">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="F62">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>411</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.04405286343612335</v>
+      </c>
+      <c r="C63">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>41</v>
+      </c>
+      <c r="E63">
+        <v>0.27</v>
+      </c>
+      <c r="F63">
+        <v>0.73</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
